--- a/pc/public/import_template/esw/wxapp_config.xlsx
+++ b/pc/public/import_template/esw/wxapp_config.xlsx
@@ -31,6 +31,9 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsWxappConfig;%&gt;&lt;%=comment.lbl%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=comment.val%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.rem%&gt;</t>
@@ -371,6 +374,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
